--- a/data/duantie.xlsx
+++ b/data/duantie.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238FE6FA-B286-44CE-A8F2-01A0DC2F755E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,13 +14,14 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="492">
   <si>
     <t>[1] 制作委托：出口用的手斧</t>
   </si>
@@ -1435,18 +1437,85 @@
   </si>
   <si>
     <t>球粒陨石手钳</t>
+  </si>
+  <si>
+    <t>[90] 制作委托：选拔中的蝰蛇对剑取错事件报告书</t>
+  </si>
+  <si>
+    <t>奥阔铬铁双牙</t>
+  </si>
+  <si>
+    <t>[90] 制作委托：亲近自然的手斧</t>
+  </si>
+  <si>
+    <t>奥阔铬铁手斧</t>
+  </si>
+  <si>
+    <t>[92] 制作委托：全国最好的钌金块</t>
+  </si>
+  <si>
+    <t>钌金锭×3</t>
+  </si>
+  <si>
+    <t>[92] 制作委托：全国最棒的王族之斧</t>
+  </si>
+  <si>
+    <t>钌金战斧</t>
+  </si>
+  <si>
+    <t>[94] 制作委托：保护飞行装置的整备道具</t>
+  </si>
+  <si>
+    <t>钴钨锉刀</t>
+  </si>
+  <si>
+    <t>[94] 制作委托：全国顶尖的发光双剑</t>
+  </si>
+  <si>
+    <t>钴钨屠刀</t>
+  </si>
+  <si>
+    <t>[96] 制作委托：全国仅有的光荣大剑</t>
+  </si>
+  <si>
+    <t>钛金巨剑</t>
+  </si>
+  <si>
+    <t>[96] 制作委托：想要拥有 新锤子</t>
+  </si>
+  <si>
+    <t>钛金碎石锤</t>
+  </si>
+  <si>
+    <t>[98] 制作委托：用于殿前比试的蝰蛇对剑订单</t>
+  </si>
+  <si>
+    <t>卡扎纳尔双牙</t>
+  </si>
+  <si>
+    <t>[98] 制作委托：极其精细的工艺道具</t>
+  </si>
+  <si>
+    <t>卡扎纳尔平斩</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1474,7 +1543,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1482,14 +1551,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1527,7 +1599,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1599,7 +1671,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1772,21 +1844,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1803,7 +1875,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1820,7 +1892,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1837,7 +1909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1854,7 +1926,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1871,7 +1943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -1888,7 +1960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1922,7 +1994,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1939,7 +2011,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1956,7 +2028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1973,7 +2045,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1990,7 +2062,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -2007,7 +2079,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>41</v>
       </c>
@@ -2024,7 +2096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2041,7 +2113,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2058,7 +2130,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -2075,7 +2147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -2092,7 +2164,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -2109,7 +2181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2126,7 +2198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2143,7 +2215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -2160,7 +2232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -2177,7 +2249,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>75</v>
       </c>
@@ -2194,7 +2266,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -2211,7 +2283,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -2228,7 +2300,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -2245,7 +2317,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>88</v>
       </c>
@@ -2262,7 +2334,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -2279,7 +2351,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -2296,7 +2368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>98</v>
       </c>
@@ -2313,7 +2385,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>102</v>
       </c>
@@ -2330,7 +2402,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -2347,7 +2419,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2364,7 +2436,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -2381,7 +2453,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -2398,7 +2470,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -2415,7 +2487,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>123</v>
       </c>
@@ -2432,7 +2504,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>127</v>
       </c>
@@ -2449,7 +2521,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>131</v>
       </c>
@@ -2466,7 +2538,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>135</v>
       </c>
@@ -2483,7 +2555,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -2500,7 +2572,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>142</v>
       </c>
@@ -2517,7 +2589,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -2534,7 +2606,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>150</v>
       </c>
@@ -2551,7 +2623,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>154</v>
       </c>
@@ -2568,7 +2640,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>158</v>
       </c>
@@ -2585,7 +2657,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>161</v>
       </c>
@@ -2602,7 +2674,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>165</v>
       </c>
@@ -2619,7 +2691,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>169</v>
       </c>
@@ -2636,7 +2708,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>172</v>
       </c>
@@ -2653,7 +2725,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>176</v>
       </c>
@@ -2670,7 +2742,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>178</v>
       </c>
@@ -2687,7 +2759,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -2704,7 +2776,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>184</v>
       </c>
@@ -2721,7 +2793,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>188</v>
       </c>
@@ -2738,7 +2810,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>192</v>
       </c>
@@ -2755,7 +2827,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>195</v>
       </c>
@@ -2772,7 +2844,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>199</v>
       </c>
@@ -2789,7 +2861,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -2807,27 +2879,28 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="5" max="5" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>205</v>
       </c>
@@ -2844,7 +2917,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -2861,7 +2934,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>213</v>
       </c>
@@ -2878,7 +2951,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -2895,7 +2968,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>221</v>
       </c>
@@ -2912,7 +2985,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>224</v>
       </c>
@@ -2929,7 +3002,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -2946,7 +3019,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>232</v>
       </c>
@@ -2963,7 +3036,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>234</v>
       </c>
@@ -2980,7 +3053,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>238</v>
       </c>
@@ -2997,7 +3070,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>242</v>
       </c>
@@ -3014,7 +3087,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>246</v>
       </c>
@@ -3031,7 +3104,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>250</v>
       </c>
@@ -3048,7 +3121,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -3065,7 +3138,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>258</v>
       </c>
@@ -3083,24 +3156,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>262</v>
       </c>
@@ -3117,7 +3191,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>266</v>
       </c>
@@ -3134,7 +3208,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>269</v>
       </c>
@@ -3151,7 +3225,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>273</v>
       </c>
@@ -3168,7 +3242,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>277</v>
       </c>
@@ -3185,7 +3259,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>280</v>
       </c>
@@ -3202,7 +3276,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -3219,7 +3293,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>288</v>
       </c>
@@ -3236,7 +3310,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>290</v>
       </c>
@@ -3253,7 +3327,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>294</v>
       </c>
@@ -3270,7 +3344,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>298</v>
       </c>
@@ -3287,7 +3361,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -3304,7 +3378,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>306</v>
       </c>
@@ -3321,7 +3395,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>310</v>
       </c>
@@ -3338,7 +3412,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -3356,24 +3430,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="33.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>318</v>
       </c>
@@ -3390,7 +3465,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>323</v>
       </c>
@@ -3407,7 +3482,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>327</v>
       </c>
@@ -3424,7 +3499,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -3441,7 +3516,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>335</v>
       </c>
@@ -3458,7 +3533,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>338</v>
       </c>
@@ -3475,7 +3550,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>342</v>
       </c>
@@ -3492,7 +3567,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>346</v>
       </c>
@@ -3509,7 +3584,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>350</v>
       </c>
@@ -3526,7 +3601,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>354</v>
       </c>
@@ -3543,7 +3618,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>358</v>
       </c>
@@ -3560,7 +3635,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>361</v>
       </c>
@@ -3577,7 +3652,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>365</v>
       </c>
@@ -3594,7 +3669,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>369</v>
       </c>
@@ -3611,7 +3686,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>373</v>
       </c>
@@ -3629,24 +3704,25 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>377</v>
       </c>
@@ -3663,7 +3739,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>382</v>
       </c>
@@ -3680,7 +3756,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>386</v>
       </c>
@@ -3697,7 +3773,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>390</v>
       </c>
@@ -3714,7 +3790,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>394</v>
       </c>
@@ -3731,7 +3807,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>397</v>
       </c>
@@ -3748,7 +3824,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>401</v>
       </c>
@@ -3765,7 +3841,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>405</v>
       </c>
@@ -3782,7 +3858,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>409</v>
       </c>
@@ -3799,7 +3875,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>413</v>
       </c>
@@ -3816,7 +3892,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>417</v>
       </c>
@@ -3833,7 +3909,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>420</v>
       </c>
@@ -3850,7 +3926,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>424</v>
       </c>
@@ -3867,7 +3943,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>428</v>
       </c>
@@ -3884,7 +3960,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -3902,161 +3978,322 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" t="s">
+        <v>434</v>
+      </c>
+      <c r="D1" t="s">
+        <v>435</v>
+      </c>
+      <c r="E1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>435</v>
+      </c>
+      <c r="E2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C7" t="s">
+        <v>457</v>
+      </c>
+      <c r="D7" t="s">
+        <v>458</v>
+      </c>
+      <c r="E7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C9" t="s">
+        <v>465</v>
+      </c>
+      <c r="D9" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C10" t="s">
+        <v>469</v>
+      </c>
+      <c r="D10" t="s">
+        <v>470</v>
+      </c>
+      <c r="E10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374B8A9E-BBCD-46CC-B399-8DDD3C503F13}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="34.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" t="s">
-        <v>435</v>
+        <v>472</v>
+      </c>
+      <c r="C1">
+        <v>2695430</v>
+      </c>
+      <c r="D1">
+        <v>5060</v>
       </c>
       <c r="E1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>437</v>
-      </c>
-      <c r="C2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D2" t="s">
-        <v>435</v>
+        <v>474</v>
+      </c>
+      <c r="C2">
+        <v>1858920</v>
+      </c>
+      <c r="D2">
+        <v>5060</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" t="s">
-        <v>441</v>
-      </c>
-      <c r="D3" t="s">
-        <v>442</v>
+        <v>476</v>
+      </c>
+      <c r="C3">
+        <v>1665250</v>
+      </c>
+      <c r="D3">
+        <v>2535</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4" t="s">
-        <v>445</v>
-      </c>
-      <c r="D4" t="s">
-        <v>446</v>
+        <v>478</v>
+      </c>
+      <c r="C4">
+        <v>3115640</v>
+      </c>
+      <c r="D4">
+        <v>5070</v>
       </c>
       <c r="E4" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" t="s">
-        <v>449</v>
-      </c>
-      <c r="D5" t="s">
-        <v>450</v>
+        <v>480</v>
+      </c>
+      <c r="C5">
+        <v>2454760</v>
+      </c>
+      <c r="D5">
+        <v>5100</v>
       </c>
       <c r="E5" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" t="s">
-        <v>454</v>
+        <v>482</v>
+      </c>
+      <c r="C6">
+        <v>3559400</v>
+      </c>
+      <c r="D6">
+        <v>5100</v>
       </c>
       <c r="E6" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>456</v>
-      </c>
-      <c r="C7" t="s">
-        <v>457</v>
-      </c>
-      <c r="D7" t="s">
-        <v>458</v>
+        <v>484</v>
+      </c>
+      <c r="C7">
+        <v>4125360</v>
+      </c>
+      <c r="D7">
+        <v>5140</v>
       </c>
       <c r="E7" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>460</v>
-      </c>
-      <c r="C8" t="s">
-        <v>461</v>
-      </c>
-      <c r="D8" t="s">
-        <v>462</v>
+        <v>486</v>
+      </c>
+      <c r="C8">
+        <v>2845080</v>
+      </c>
+      <c r="D8">
+        <v>5140</v>
       </c>
       <c r="E8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>464</v>
-      </c>
-      <c r="C9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D9" t="s">
-        <v>466</v>
+        <v>488</v>
+      </c>
+      <c r="C9">
+        <v>4664730</v>
+      </c>
+      <c r="D9">
+        <v>5180</v>
       </c>
       <c r="E9" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C10" t="s">
-        <v>469</v>
-      </c>
-      <c r="D10" t="s">
-        <v>470</v>
+        <v>490</v>
+      </c>
+      <c r="C10">
+        <v>3940890</v>
+      </c>
+      <c r="D10">
+        <v>5180</v>
       </c>
       <c r="E10" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>